--- a/template/b2b/template_b2b_base.xlsx
+++ b/template/b2b/template_b2b_base.xlsx
@@ -18,9 +18,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="128">
   <si>
-    <t>b2b_rep</t>
-  </si>
-  <si>
     <t>All</t>
   </si>
   <si>
@@ -400,6 +397,9 @@
   </si>
   <si>
     <t>E1_2(1)</t>
+  </si>
+  <si>
+    <t>b2b_rep_base</t>
   </si>
 </sst>
 </file>
@@ -737,9 +737,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A168" workbookViewId="0">
-      <selection activeCell="E203" sqref="E203"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -748,1007 +746,1007 @@
   <sheetData>
     <row r="1" spans="1:5" ht="108.75" customHeight="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="D4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="E5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="D6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="E7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="D8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="E9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="C15" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="D16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="3:5">
       <c r="E17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="3:5">
       <c r="E18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="3:5">
       <c r="D19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="3:5">
       <c r="E20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="3:5">
       <c r="E21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="3:5">
       <c r="D22" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="3:5">
       <c r="E23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="3:5">
       <c r="E24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="3:5">
       <c r="D25" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="3:5">
       <c r="E26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="3:5">
       <c r="E27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="3:5">
       <c r="D28" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="3:5">
       <c r="E29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="3:5">
       <c r="E30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31" spans="3:5">
       <c r="C31" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="3:5">
       <c r="D32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="3:5">
       <c r="E33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="3:5">
       <c r="E34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="3:5">
       <c r="C35" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="36" spans="3:5">
       <c r="D36" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="3:5">
       <c r="E37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="3:5">
       <c r="E38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="3:5">
       <c r="C39" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="3:5">
       <c r="D40" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="3:5">
       <c r="E41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="3:5">
       <c r="E42" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="3:5">
       <c r="D43" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="3:5">
       <c r="E44" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="45" spans="3:5">
       <c r="E45" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46" spans="3:5">
       <c r="D46" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="3:5">
       <c r="E47" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="48" spans="3:5">
       <c r="E48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="3:5">
       <c r="D49" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="3:5">
       <c r="E50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="51" spans="3:5">
       <c r="E51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="3:5">
       <c r="D52" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="3:5">
       <c r="E53" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="3:5">
       <c r="E54" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" spans="3:5">
       <c r="D55" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="3:5">
       <c r="E56" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" spans="3:5">
       <c r="E57" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="3:5">
       <c r="C58" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="3:5">
       <c r="D59" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" spans="3:5">
       <c r="E60" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="61" spans="3:5">
       <c r="E61" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="62" spans="3:5">
       <c r="C62" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E62" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="63" spans="3:5">
       <c r="D63" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="3:5">
       <c r="E64" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="65" spans="4:5">
       <c r="E65" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="66" spans="4:5">
       <c r="D66" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="4:5">
       <c r="E67" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="68" spans="4:5">
       <c r="E68" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="69" spans="4:5">
       <c r="D69" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="4:5">
       <c r="E70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="71" spans="4:5">
       <c r="E71" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="72" spans="4:5">
       <c r="D72" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="4:5">
       <c r="E73" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="74" spans="4:5">
       <c r="E74" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="75" spans="4:5">
       <c r="D75" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="4:5">
       <c r="E76" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="77" spans="4:5">
       <c r="E77" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="78" spans="4:5">
       <c r="D78" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="4:5">
       <c r="E79" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="80" spans="4:5">
       <c r="E80" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="81" spans="3:5">
       <c r="D81" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="3:5">
       <c r="E82" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="83" spans="3:5">
       <c r="E83" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="84" spans="3:5">
       <c r="C84" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="85" spans="3:5">
       <c r="D85" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="86" spans="3:5">
       <c r="E86" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="87" spans="3:5">
       <c r="C87" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="3:5">
       <c r="D88" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="89" spans="3:5">
       <c r="E89" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="90" spans="3:5">
       <c r="D90" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="91" spans="3:5">
       <c r="E91" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="92" spans="3:5">
       <c r="C92" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="93" spans="3:5">
       <c r="D93" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="94" spans="3:5">
       <c r="E94" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="95" spans="3:5">
       <c r="C95" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E95" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="96" spans="3:5">
       <c r="D96" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="4:5">
       <c r="E97" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="98" spans="4:5">
       <c r="E98" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="99" spans="4:5">
       <c r="D99" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="4:5">
       <c r="E100" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="101" spans="4:5">
       <c r="E101" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="102" spans="4:5">
       <c r="D102" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="4:5">
       <c r="E103" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="104" spans="4:5">
       <c r="E104" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="105" spans="4:5">
       <c r="D105" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="4:5">
       <c r="E106" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="107" spans="4:5">
       <c r="E107" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="108" spans="4:5">
       <c r="D108" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="4:5">
       <c r="E109" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="110" spans="4:5">
       <c r="E110" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="111" spans="4:5">
       <c r="D111" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="4:5">
       <c r="E112" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="113" spans="3:5">
       <c r="E113" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="114" spans="3:5">
       <c r="C114" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="3:5">
       <c r="D115" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="116" spans="3:5">
       <c r="E116" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="117" spans="3:5">
       <c r="D117" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="118" spans="3:5">
       <c r="E118" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="119" spans="3:5">
       <c r="D119" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="120" spans="3:5">
       <c r="E120" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="121" spans="3:5">
       <c r="C121" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E121" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="122" spans="3:5">
       <c r="D122" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="3:5">
       <c r="E123" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="124" spans="3:5">
       <c r="E124" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="125" spans="3:5">
       <c r="D125" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="3:5">
       <c r="E126" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="127" spans="3:5">
       <c r="E127" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="128" spans="3:5">
       <c r="D128" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="3:5">
       <c r="E129" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="130" spans="3:5">
       <c r="E130" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="131" spans="3:5">
       <c r="D131" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="3:5">
       <c r="E132" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="133" spans="3:5">
       <c r="E133" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="134" spans="3:5">
       <c r="D134" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="3:5">
       <c r="E135" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="136" spans="3:5">
       <c r="E136" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="137" spans="3:5">
       <c r="D137" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="3:5">
       <c r="E138" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="139" spans="3:5">
       <c r="E139" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="140" spans="3:5">
       <c r="D140" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="3:5">
       <c r="E141" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="142" spans="3:5">
       <c r="E142" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="143" spans="3:5">
       <c r="C143" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E143" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="144" spans="3:5">
       <c r="D144" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="4:5">
       <c r="E145" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="146" spans="4:5">
       <c r="E146" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="147" spans="4:5">
       <c r="D147" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="4:5">
       <c r="E148" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="149" spans="4:5">
       <c r="E149" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="150" spans="4:5">
       <c r="D150" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="4:5">
       <c r="E151" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="152" spans="4:5">
       <c r="E152" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="153" spans="4:5">
       <c r="D153" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="4:5">
       <c r="E154" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="155" spans="4:5">
       <c r="E155" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="156" spans="4:5">
       <c r="D156" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="4:5">
       <c r="E157" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="158" spans="4:5">
       <c r="E158" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="159" spans="4:5">
       <c r="D159" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="4:5">
       <c r="E160" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="161" spans="4:5">
       <c r="E161" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="162" spans="4:5">
       <c r="D162" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="4:5">
       <c r="E163" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="164" spans="4:5">
       <c r="E164" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="165" spans="4:5">
       <c r="D165" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="4:5">
       <c r="E166" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="167" spans="4:5">
       <c r="E167" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="168" spans="4:5">
       <c r="D168" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="4:5">
       <c r="E169" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="170" spans="4:5">
       <c r="E170" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="171" spans="4:5">
       <c r="D171" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="4:5">
       <c r="E172" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="173" spans="4:5">
       <c r="E173" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="174" spans="4:5">
       <c r="D174" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="4:5">
       <c r="E175" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="176" spans="4:5">
       <c r="E176" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="177" spans="3:5">
       <c r="D177" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="3:5">
       <c r="E178" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="179" spans="3:5">
       <c r="E179" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="180" spans="3:5">
       <c r="C180" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="3:5">
       <c r="D181" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="182" spans="3:5">
       <c r="E182" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="183" spans="3:5">
       <c r="E183" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="184" spans="3:5">
       <c r="C184" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="185" spans="3:5">
       <c r="D185" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="186" spans="3:5">
       <c r="E186" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="187" spans="3:5">
       <c r="C187" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="3:5">
       <c r="D188" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="189" spans="3:5">
       <c r="E189" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="190" spans="3:5">
       <c r="E190" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="191" spans="3:5">
       <c r="C191" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="192" spans="3:5">
       <c r="D192" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="193" spans="3:5">
       <c r="E193" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="194" spans="3:5">
       <c r="C194" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="3:5">
       <c r="D195" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="196" spans="3:5">
       <c r="E196" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="197" spans="3:5">
       <c r="E197" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="198" spans="3:5">
       <c r="C198" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="199" spans="3:5">
       <c r="D199" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="200" spans="3:5">
       <c r="E200" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
